--- a/Assets/Resources/Data/HonkaiImpact3rdData.xlsx
+++ b/Assets/Resources/Data/HonkaiImpact3rdData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GameDesigner2\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E371F8B-C751-40E0-ACA6-D5EF7BBF80DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A848C5-FA85-442F-82D0-A821248F8C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2424" windowWidth="23040" windowHeight="12216" xr2:uid="{A9D81FDE-F90A-44B8-9F30-C74DE307B7EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{A9D81FDE-F90A-44B8-9F30-C74DE307B7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="characterSheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="365">
   <si>
     <t>키아나·카스라나</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1272,6 +1272,88 @@
   </si>
   <si>
     <t>portrait-bh</t>
+  </si>
+  <si>
+    <t>imageColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FBB328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2CDFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF44CB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#A585FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#F3D58A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 물리 대미지를 입힌다</t>
+  </si>
+  <si>
+    <t>스킬이 화염 원소 대미지를 입힌다</t>
+  </si>
+  <si>
+    <t>스킬이 빙결 원소 대미지를 입힌다</t>
+  </si>
+  <si>
+    <t>스킬이 뇌전 원소 대미지를 입힌다</t>
+  </si>
+  <si>
+    <t>빙결 게이지가 가득 찬 적은 빙결되며, 빙결된 적은 5초 동안 움직일 수 없다</t>
+  </si>
+  <si>
+    <t>마비 게이지가 가득 찬 적은 마비되며, 마비된 적은 5초 동안 움직일 수 없다</t>
+  </si>
+  <si>
+    <t>기절 게이지가 가득찬 적은 기절하며, 기절한 적은 5초 동안 움직일 수 없다</t>
+  </si>
+  <si>
+    <t>연소 게이지가 가득찬 적은 연소 상태가 되며, 출혈 상태의 적은 10초 동안 0.5초 마다 공격력 30%의 화염 원소 대미지를 받는다</t>
+  </si>
+  <si>
+    <t>출혈 게이지가 가득찬 적은 출혈 상태가 되며, 출혈 상태의 적은 10초 동안 0.5초 마다 공격력 40%의 물리 대미지를 받는다</t>
+  </si>
+  <si>
+    <t>강격은 실드에 더 많은 대미지를 입힌다</t>
+  </si>
+  <si>
+    <t>허약 상태의 적은 물리 대미지가 감소한다</t>
+  </si>
+  <si>
+    <t>취약 상태의 적은 받는 피해가 증가한다</t>
+  </si>
+  <si>
+    <t>스킬은 시공 감속을 일으킨다. 시공 감속의 적은 속도가 감소한다</t>
+  </si>
+  <si>
+    <t>스킬은 주변의 적을 끌어당긴다</t>
+  </si>
+  <si>
+    <t>스킬은 아군에게 HP 회복 효과를 부여한다</t>
+  </si>
+  <si>
+    <t>발키리의 공격 빈도가 비교적 높다</t>
+  </si>
+  <si>
+    <t>발키리는 버스트 모드가 있다</t>
+  </si>
+  <si>
+    <t>발키리는 공중의 적을 공격할 수 있다</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1523,19 +1605,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1609,7 +1678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1643,9 +1712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1668,9 +1734,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1700,31 +1763,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1753,13 +1816,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>31483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>553335</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>591171</xdr:rowOff>
@@ -1814,13 +1877,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>553335</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>587288</xdr:rowOff>
@@ -1864,13 +1927,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>33459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>553335</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>573459</xdr:rowOff>
@@ -1914,13 +1977,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>32471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>553335</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>572471</xdr:rowOff>
@@ -1964,13 +2027,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>553335</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>588277</xdr:rowOff>
@@ -2019,13 +2082,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>593789</xdr:rowOff>
@@ -2069,13 +2132,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>50241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>590241</xdr:rowOff>
@@ -2119,13 +2182,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>53400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>593400</xdr:rowOff>
@@ -2169,13 +2232,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>53005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>593005</xdr:rowOff>
@@ -2219,13 +2282,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>587477</xdr:rowOff>
@@ -2269,13 +2332,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>48661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>588661</xdr:rowOff>
@@ -2319,13 +2382,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>52215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>592215</xdr:rowOff>
@@ -2369,13 +2432,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>52610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>592610</xdr:rowOff>
@@ -2419,13 +2482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>50636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>590636</xdr:rowOff>
@@ -2469,13 +2532,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>587871</xdr:rowOff>
@@ -2519,13 +2582,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>49846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>589846</xdr:rowOff>
@@ -2569,13 +2632,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>51425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>591425</xdr:rowOff>
@@ -2619,13 +2682,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>48266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>588266</xdr:rowOff>
@@ -2669,13 +2732,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>49056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>589056</xdr:rowOff>
@@ -2719,13 +2782,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>49451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>589451</xdr:rowOff>
@@ -2769,13 +2832,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>51820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>591820</xdr:rowOff>
@@ -2819,13 +2882,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>51030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>549525</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>591030</xdr:rowOff>
@@ -2869,7 +2932,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>53789</xdr:rowOff>
@@ -2914,7 +2977,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>50241</xdr:rowOff>
@@ -2959,7 +3022,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>53400</xdr:rowOff>
@@ -3004,7 +3067,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>53005</xdr:rowOff>
@@ -3049,7 +3112,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47477</xdr:rowOff>
@@ -3094,7 +3157,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>48661</xdr:rowOff>
@@ -3139,7 +3202,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>52215</xdr:rowOff>
@@ -3184,7 +3247,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>52610</xdr:rowOff>
@@ -3229,7 +3292,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>50636</xdr:rowOff>
@@ -3274,7 +3337,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>47871</xdr:rowOff>
@@ -3319,7 +3382,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>49846</xdr:rowOff>
@@ -3364,7 +3427,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>51425</xdr:rowOff>
@@ -3409,7 +3472,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>48266</xdr:rowOff>
@@ -3454,7 +3517,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>49056</xdr:rowOff>
@@ -3499,7 +3562,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47082</xdr:rowOff>
@@ -3544,7 +3607,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>49451</xdr:rowOff>
@@ -3589,7 +3652,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>51820</xdr:rowOff>
@@ -3634,7 +3697,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>51030</xdr:rowOff>
@@ -3979,9 +4042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A388C2-DCF0-4D5C-986B-4DAD8D877A96}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3992,8 +4055,8 @@
     <col min="4" max="4" width="11.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.59765625" style="1" customWidth="1"/>
     <col min="6" max="11" width="11.8984375" customWidth="1"/>
-    <col min="12" max="12" width="27.8984375" style="27" customWidth="1"/>
-    <col min="13" max="13" width="19.296875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="27.8984375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="19.296875" style="25" customWidth="1"/>
     <col min="14" max="14" width="5.19921875" customWidth="1"/>
     <col min="15" max="15" width="38" customWidth="1"/>
     <col min="16" max="16" width="40.296875" customWidth="1"/>
@@ -4006,113 +4069,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="27" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>100000</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="30">
         <v>110000</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="30">
         <v>120000</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="30">
         <v>120006</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="30">
         <v>120016</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="30">
         <v>120012</v>
       </c>
-      <c r="J2" s="32">
-        <v>0</v>
-      </c>
-      <c r="K2" s="32">
-        <v>0</v>
-      </c>
-      <c r="L2" s="34" t="s">
+      <c r="J2" s="30">
+        <v>0</v>
+      </c>
+      <c r="K2" s="30">
+        <v>0</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="32" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>100001</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>110000</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4">
@@ -4133,27 +4196,27 @@
       <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23">
+      <c r="A4" s="21">
         <v>100002</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="4">
         <v>110000</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4">
@@ -4174,27 +4237,27 @@
       <c r="K4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>100003</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>110001</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4">
@@ -4215,27 +4278,27 @@
       <c r="K5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23">
+      <c r="A6" s="21">
         <v>100004</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>110002</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4">
@@ -4256,27 +4319,27 @@
       <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="24" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <v>100005</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="B7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="4">
         <v>110002</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="4">
@@ -4297,27 +4360,27 @@
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="24" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>100006</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="4">
         <v>110001</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4">
@@ -4338,27 +4401,27 @@
       <c r="K8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>100100</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="4">
         <v>110002</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="4">
@@ -4379,27 +4442,27 @@
       <c r="K9" s="4">
         <v>0</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="24" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>100101</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="4">
         <v>110002</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="4">
@@ -4420,27 +4483,27 @@
       <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="24" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>100102</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="4">
         <v>110002</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4">
@@ -4461,27 +4524,27 @@
       <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23">
+      <c r="A12" s="21">
         <v>100103</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="4">
         <v>110000</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4">
@@ -4502,27 +4565,27 @@
       <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23">
+      <c r="A13" s="21">
         <v>100104</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="4">
         <v>110000</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="4">
@@ -4543,27 +4606,27 @@
       <c r="K13" s="4">
         <v>0</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="23">
+      <c r="A14" s="21">
         <v>100105</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="4">
         <v>110001</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="4">
@@ -4584,27 +4647,27 @@
       <c r="K14" s="4">
         <v>0</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>100106</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="4">
         <v>110001</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="4">
@@ -4625,27 +4688,27 @@
       <c r="K15" s="4">
         <v>0</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="24" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="23">
+      <c r="A16" s="21">
         <v>100200</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="4">
         <v>110001</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="4">
@@ -4666,27 +4729,27 @@
       <c r="K16" s="4">
         <v>0</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="24" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>100201</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="4">
         <v>110001</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4">
@@ -4707,27 +4770,27 @@
       <c r="K17" s="4">
         <v>0</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="24" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <v>100202</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="4">
         <v>110001</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="4">
@@ -4748,27 +4811,27 @@
       <c r="K18" s="4">
         <v>0</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="24" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>100203</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="4">
         <v>110001</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="4">
@@ -4789,27 +4852,27 @@
       <c r="K19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="23">
+      <c r="A20" s="21">
         <v>100204</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="4">
         <v>110002</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="4">
@@ -4830,27 +4893,27 @@
       <c r="K20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="24" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" s="23">
+      <c r="A21" s="21">
         <v>100205</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="4">
         <v>110002</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="4">
@@ -4871,27 +4934,27 @@
       <c r="K21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" s="23">
+      <c r="A22" s="21">
         <v>100206</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="4">
         <v>110001</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="4">
@@ -4912,27 +4975,27 @@
       <c r="K22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="L22" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="24" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" s="23">
+      <c r="A23" s="21">
         <v>100207</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="4">
         <v>110000</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="4">
@@ -4953,27 +5016,27 @@
       <c r="K23" s="4">
         <v>0</v>
       </c>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="24" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" s="23">
+      <c r="A24" s="21">
         <v>100208</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="4">
         <v>110000</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="4">
@@ -4994,27 +5057,27 @@
       <c r="K24" s="4">
         <v>0</v>
       </c>
-      <c r="L24" s="26" t="s">
+      <c r="L24" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="24" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" s="23">
+      <c r="A25" s="21">
         <v>100209</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="4">
         <v>110002</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="4">
@@ -5035,27 +5098,27 @@
       <c r="K25" s="4">
         <v>0</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="M25" s="24" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="23">
+      <c r="A26" s="21">
         <v>100300</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="4">
         <v>110002</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="4">
@@ -5076,27 +5139,27 @@
       <c r="K26" s="4">
         <v>0</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="24" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="23">
+      <c r="A27" s="21">
         <v>100301</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="4">
         <v>110001</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="4">
@@ -5117,27 +5180,27 @@
       <c r="K27" s="4">
         <v>0</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="24" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="23">
+      <c r="A28" s="21">
         <v>100301</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="4">
         <v>110002</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="4">
@@ -5158,27 +5221,27 @@
       <c r="K28" s="4">
         <v>0</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="24" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="23">
+      <c r="A29" s="21">
         <v>100301</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="4">
         <v>110000</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="4">
@@ -5199,27 +5262,27 @@
       <c r="K29" s="4">
         <v>0</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="L29" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="24" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" s="23">
+      <c r="A30" s="21">
         <v>100301</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D30" s="4">
         <v>110000</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="4">
@@ -5240,27 +5303,27 @@
       <c r="K30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="26" t="s">
+      <c r="L30" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="M30" s="26" t="s">
+      <c r="M30" s="24" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" s="23">
+      <c r="A31" s="21">
         <v>100301</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="21" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4">
         <v>110001</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="4">
@@ -5281,27 +5344,27 @@
       <c r="K31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="24" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" s="23">
+      <c r="A32" s="21">
         <v>100400</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="4">
         <v>110001</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="4">
@@ -5322,27 +5385,27 @@
       <c r="K32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="24" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" s="23">
+      <c r="A33" s="21">
         <v>100401</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="4">
         <v>110002</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="4">
@@ -5363,27 +5426,27 @@
       <c r="K33" s="4">
         <v>0</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="24" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="23">
+      <c r="A34" s="21">
         <v>100402</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="4">
         <v>110001</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="4">
@@ -5404,27 +5467,27 @@
       <c r="K34" s="4">
         <v>0</v>
       </c>
-      <c r="L34" s="26" t="s">
+      <c r="L34" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="24" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" s="23">
+      <c r="A35" s="21">
         <v>100403</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="4">
         <v>110002</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="4">
@@ -5445,27 +5508,27 @@
       <c r="K35" s="4">
         <v>0</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="24" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" s="23">
+      <c r="A36" s="21">
         <v>100404</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="4">
         <v>110000</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="4">
@@ -5486,27 +5549,27 @@
       <c r="K36" s="4">
         <v>0</v>
       </c>
-      <c r="L36" s="26" t="s">
+      <c r="L36" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="M36" s="26" t="s">
+      <c r="M36" s="24" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" s="23">
+      <c r="A37" s="21">
         <v>100405</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>139</v>
       </c>
       <c r="D37" s="4">
         <v>110000</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="4">
@@ -5527,27 +5590,27 @@
       <c r="K37" s="4">
         <v>0</v>
       </c>
-      <c r="L37" s="26" t="s">
+      <c r="L37" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="24" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="23">
+      <c r="A38" s="21">
         <v>100406</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="4">
         <v>110002</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="4">
@@ -5568,27 +5631,27 @@
       <c r="K38" s="4">
         <v>0</v>
       </c>
-      <c r="L38" s="26" t="s">
+      <c r="L38" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="24" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" s="23">
+      <c r="A39" s="21">
         <v>100500</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="4">
         <v>110001</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="4">
@@ -5609,27 +5672,27 @@
       <c r="K39" s="4">
         <v>0</v>
       </c>
-      <c r="L39" s="26" t="s">
+      <c r="L39" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="M39" s="26" t="s">
+      <c r="M39" s="24" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" s="23">
+      <c r="A40" s="21">
         <v>100501</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D40" s="4">
         <v>110001</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="4">
@@ -5650,27 +5713,27 @@
       <c r="K40" s="4">
         <v>0</v>
       </c>
-      <c r="L40" s="26" t="s">
+      <c r="L40" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="M40" s="26" t="s">
+      <c r="M40" s="24" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="23">
+      <c r="A41" s="21">
         <v>100502</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="4">
         <v>110002</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="4">
@@ -5691,27 +5754,27 @@
       <c r="K41" s="4">
         <v>0</v>
       </c>
-      <c r="L41" s="26" t="s">
+      <c r="L41" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="M41" s="26" t="s">
+      <c r="M41" s="24" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="23">
+      <c r="A42" s="21">
         <v>100503</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D42" s="4">
         <v>110000</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="4">
@@ -5732,27 +5795,27 @@
       <c r="K42" s="4">
         <v>0</v>
       </c>
-      <c r="L42" s="26" t="s">
+      <c r="L42" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="M42" s="26" t="s">
+      <c r="M42" s="24" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="23">
+      <c r="A43" s="21">
         <v>100504</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D43" s="4">
         <v>110002</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="4">
@@ -5773,27 +5836,27 @@
       <c r="K43" s="4">
         <v>0</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="M43" s="26" t="s">
+      <c r="M43" s="24" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" s="23">
+      <c r="A44" s="21">
         <v>100505</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="4">
         <v>110001</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="4">
@@ -5814,27 +5877,27 @@
       <c r="K44" s="4">
         <v>0</v>
       </c>
-      <c r="L44" s="26" t="s">
+      <c r="L44" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="M44" s="26" t="s">
+      <c r="M44" s="24" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" s="23">
+      <c r="A45" s="21">
         <v>100506</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D45" s="4">
         <v>110001</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F45" s="4">
@@ -5855,27 +5918,27 @@
       <c r="K45" s="4">
         <v>0</v>
       </c>
-      <c r="L45" s="26" t="s">
+      <c r="L45" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="M45" s="26" t="s">
+      <c r="M45" s="24" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" s="23">
+      <c r="A46" s="21">
         <v>100600</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="21" t="s">
         <v>74</v>
       </c>
       <c r="D46" s="4">
         <v>110001</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="4">
@@ -5896,27 +5959,27 @@
       <c r="K46" s="4">
         <v>0</v>
       </c>
-      <c r="L46" s="26" t="s">
+      <c r="L46" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="M46" s="26" t="s">
+      <c r="M46" s="24" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" s="23">
+      <c r="A47" s="21">
         <v>100601</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D47" s="4">
         <v>110000</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="4">
@@ -5937,27 +6000,27 @@
       <c r="K47" s="4">
         <v>0</v>
       </c>
-      <c r="L47" s="26" t="s">
+      <c r="L47" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="M47" s="26" t="s">
+      <c r="M47" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" s="23">
+      <c r="A48" s="21">
         <v>100602</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D48" s="4">
         <v>110002</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="4">
@@ -5978,27 +6041,27 @@
       <c r="K48" s="4">
         <v>0</v>
       </c>
-      <c r="L48" s="26" t="s">
+      <c r="L48" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="M48" s="26" t="s">
+      <c r="M48" s="24" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" s="23">
+      <c r="A49" s="21">
         <v>100603</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D49" s="4">
         <v>110003</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F49" s="4">
@@ -6019,27 +6082,27 @@
       <c r="K49" s="4">
         <v>0</v>
       </c>
-      <c r="L49" s="26" t="s">
+      <c r="L49" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="M49" s="26" t="s">
+      <c r="M49" s="24" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" s="23">
+      <c r="A50" s="21">
         <v>100604</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D50" s="4">
         <v>110000</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F50" s="4">
@@ -6060,27 +6123,27 @@
       <c r="K50" s="4">
         <v>0</v>
       </c>
-      <c r="L50" s="26" t="s">
+      <c r="L50" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="M50" s="26" t="s">
+      <c r="M50" s="24" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" s="23">
+      <c r="A51" s="21">
         <v>100700</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="21" t="s">
         <v>80</v>
       </c>
       <c r="D51" s="4">
         <v>110002</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="4">
@@ -6101,27 +6164,27 @@
       <c r="K51" s="4">
         <v>0</v>
       </c>
-      <c r="L51" s="26" t="s">
+      <c r="L51" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M51" s="26" t="s">
+      <c r="M51" s="24" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" s="23">
+      <c r="A52" s="21">
         <v>100701</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D52" s="4">
         <v>110002</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="4">
@@ -6142,27 +6205,27 @@
       <c r="K52" s="4">
         <v>0</v>
       </c>
-      <c r="L52" s="26" t="s">
+      <c r="L52" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="M52" s="26" t="s">
+      <c r="M52" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="23">
+      <c r="A53" s="21">
         <v>100702</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="21" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="4">
         <v>110002</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="4">
@@ -6183,27 +6246,27 @@
       <c r="K53" s="4">
         <v>0</v>
       </c>
-      <c r="L53" s="26" t="s">
+      <c r="L53" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="M53" s="26" t="s">
+      <c r="M53" s="24" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" s="23">
+      <c r="A54" s="21">
         <v>100703</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="21" t="s">
         <v>84</v>
       </c>
       <c r="D54" s="4">
         <v>110000</v>
       </c>
-      <c r="E54" s="25" t="s">
+      <c r="E54" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="4">
@@ -6224,27 +6287,27 @@
       <c r="K54" s="4">
         <v>0</v>
       </c>
-      <c r="L54" s="26" t="s">
+      <c r="L54" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="M54" s="26" t="s">
+      <c r="M54" s="24" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" s="23">
+      <c r="A55" s="21">
         <v>100800</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="21" t="s">
         <v>86</v>
       </c>
       <c r="D55" s="4">
         <v>110000</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="4">
@@ -6265,27 +6328,27 @@
       <c r="K55" s="4">
         <v>0</v>
       </c>
-      <c r="L55" s="26" t="s">
+      <c r="L55" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="M55" s="26" t="s">
+      <c r="M55" s="24" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" s="23">
+      <c r="A56" s="21">
         <v>100801</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D56" s="4">
         <v>110000</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="4">
@@ -6306,27 +6369,27 @@
       <c r="K56" s="4">
         <v>0</v>
       </c>
-      <c r="L56" s="26" t="s">
+      <c r="L56" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="M56" s="26" t="s">
+      <c r="M56" s="24" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" s="23">
+      <c r="A57" s="21">
         <v>100802</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="21" t="s">
         <v>161</v>
       </c>
       <c r="D57" s="4">
         <v>110001</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F57" s="4">
@@ -6347,27 +6410,27 @@
       <c r="K57" s="4">
         <v>0</v>
       </c>
-      <c r="L57" s="26" t="s">
+      <c r="L57" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="M57" s="26" t="s">
+      <c r="M57" s="24" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A58" s="23">
+      <c r="A58" s="21">
         <v>100900</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="21" t="s">
         <v>89</v>
       </c>
       <c r="D58" s="4">
         <v>110000</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="4">
@@ -6388,27 +6451,27 @@
       <c r="K58" s="4">
         <v>0</v>
       </c>
-      <c r="L58" s="26" t="s">
+      <c r="L58" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="M58" s="26" t="s">
+      <c r="M58" s="24" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" s="23">
+      <c r="A59" s="21">
         <v>100901</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D59" s="4">
         <v>110001</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F59" s="4">
@@ -6429,27 +6492,27 @@
       <c r="K59" s="4">
         <v>0</v>
       </c>
-      <c r="L59" s="26" t="s">
+      <c r="L59" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="M59" s="26" t="s">
+      <c r="M59" s="24" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" s="23">
+      <c r="A60" s="21">
         <v>100902</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D60" s="4">
         <v>110001</v>
       </c>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F60" s="4">
@@ -6470,27 +6533,27 @@
       <c r="K60" s="4">
         <v>0</v>
       </c>
-      <c r="L60" s="26" t="s">
+      <c r="L60" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="M60" s="26" t="s">
+      <c r="M60" s="24" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" s="23">
+      <c r="A61" s="21">
         <v>101000</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="4">
         <v>110003</v>
       </c>
-      <c r="E61" s="25" t="s">
+      <c r="E61" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="4">
@@ -6511,27 +6574,27 @@
       <c r="K61" s="4">
         <v>0</v>
       </c>
-      <c r="L61" s="26" t="s">
+      <c r="L61" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="M61" s="26" t="s">
+      <c r="M61" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" s="23">
+      <c r="A62" s="21">
         <v>101001</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="21" t="s">
         <v>94</v>
       </c>
       <c r="D62" s="4">
         <v>110003</v>
       </c>
-      <c r="E62" s="25" t="s">
+      <c r="E62" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="4">
@@ -6552,27 +6615,27 @@
       <c r="K62" s="4">
         <v>0</v>
       </c>
-      <c r="L62" s="26" t="s">
+      <c r="L62" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="M62" s="26" t="s">
+      <c r="M62" s="24" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" s="23">
+      <c r="A63" s="21">
         <v>101002</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="21" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="4">
         <v>110003</v>
       </c>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F63" s="4">
@@ -6593,27 +6656,27 @@
       <c r="K63" s="4">
         <v>0</v>
       </c>
-      <c r="L63" s="26" t="s">
+      <c r="L63" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="M63" s="26" t="s">
+      <c r="M63" s="24" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A64" s="23">
+      <c r="A64" s="21">
         <v>101100</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="21" t="s">
         <v>97</v>
       </c>
       <c r="D64" s="4">
         <v>110003</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="4">
@@ -6634,27 +6697,27 @@
       <c r="K64" s="4">
         <v>0</v>
       </c>
-      <c r="L64" s="26" t="s">
+      <c r="L64" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="M64" s="26" t="s">
+      <c r="M64" s="24" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" s="23">
+      <c r="A65" s="21">
         <v>101101</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="21" t="s">
         <v>98</v>
       </c>
       <c r="D65" s="4">
         <v>110000</v>
       </c>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="4">
@@ -6675,27 +6738,27 @@
       <c r="K65" s="4">
         <v>0</v>
       </c>
-      <c r="L65" s="26" t="s">
+      <c r="L65" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="M65" s="26" t="s">
+      <c r="M65" s="24" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" s="23">
+      <c r="A66" s="21">
         <v>101102</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C66" s="21" t="s">
         <v>99</v>
       </c>
       <c r="D66" s="4">
         <v>110002</v>
       </c>
-      <c r="E66" s="25" t="s">
+      <c r="E66" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="4">
@@ -6716,27 +6779,27 @@
       <c r="K66" s="4">
         <v>0</v>
       </c>
-      <c r="L66" s="26" t="s">
+      <c r="L66" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="M66" s="26" t="s">
+      <c r="M66" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" s="23">
+      <c r="A67" s="21">
         <v>101103</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D67" s="4">
         <v>110004</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="4">
@@ -6757,27 +6820,27 @@
       <c r="K67" s="4">
         <v>0</v>
       </c>
-      <c r="L67" s="26" t="s">
+      <c r="L67" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="M67" s="26" t="s">
+      <c r="M67" s="24" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" s="23">
+      <c r="A68" s="21">
         <v>101200</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="21" t="s">
         <v>103</v>
       </c>
       <c r="D68" s="4">
         <v>110002</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="4">
@@ -6798,27 +6861,27 @@
       <c r="K68" s="4">
         <v>0</v>
       </c>
-      <c r="L68" s="26" t="s">
+      <c r="L68" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="M68" s="26" t="s">
+      <c r="M68" s="24" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A69" s="23">
+      <c r="A69" s="21">
         <v>101300</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D69" s="4">
         <v>110001</v>
       </c>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="4">
@@ -6839,27 +6902,27 @@
       <c r="K69" s="4">
         <v>0</v>
       </c>
-      <c r="L69" s="26" t="s">
+      <c r="L69" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="M69" s="26" t="s">
+      <c r="M69" s="24" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A70" s="23">
+      <c r="A70" s="21">
         <v>101301</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D70" s="4">
         <v>110001</v>
       </c>
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="4">
@@ -6880,27 +6943,27 @@
       <c r="K70" s="4">
         <v>0</v>
       </c>
-      <c r="L70" s="26" t="s">
+      <c r="L70" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="M70" s="26" t="s">
+      <c r="M70" s="24" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A71" s="23">
+      <c r="A71" s="21">
         <v>101400</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="21" t="s">
         <v>108</v>
       </c>
       <c r="D71" s="4">
         <v>110000</v>
       </c>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="4">
@@ -6921,27 +6984,27 @@
       <c r="K71" s="4">
         <v>0</v>
       </c>
-      <c r="L71" s="26" t="s">
+      <c r="L71" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="M71" s="26" t="s">
+      <c r="M71" s="24" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A72" s="23">
+      <c r="A72" s="21">
         <v>101500</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D72" s="4">
         <v>110004</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="4">
@@ -6962,27 +7025,27 @@
       <c r="K72" s="4">
         <v>0</v>
       </c>
-      <c r="L72" s="26" t="s">
+      <c r="L72" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="M72" s="26" t="s">
+      <c r="M72" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A73" s="23">
+      <c r="A73" s="21">
         <v>101600</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D73" s="4">
         <v>110000</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="4">
@@ -7003,27 +7066,27 @@
       <c r="K73" s="4">
         <v>120009</v>
       </c>
-      <c r="L73" s="26" t="s">
+      <c r="L73" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="M73" s="26" t="s">
+      <c r="M73" s="24" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A74" s="23">
+      <c r="A74" s="21">
         <v>101700</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D74" s="4">
         <v>110004</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="4">
@@ -7044,27 +7107,27 @@
       <c r="K74" s="4">
         <v>0</v>
       </c>
-      <c r="L74" s="26" t="s">
+      <c r="L74" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="M74" s="26" t="s">
+      <c r="M74" s="24" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" s="23">
+      <c r="A75" s="21">
         <v>101800</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="21" t="s">
         <v>116</v>
       </c>
       <c r="D75" s="4">
         <v>110002</v>
       </c>
-      <c r="E75" s="25" t="s">
+      <c r="E75" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="4">
@@ -7085,27 +7148,27 @@
       <c r="K75" s="4">
         <v>0</v>
       </c>
-      <c r="L75" s="26" t="s">
+      <c r="L75" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="M75" s="26" t="s">
+      <c r="M75" s="24" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" s="23">
+      <c r="A76" s="21">
         <v>101900</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="21" t="s">
         <v>118</v>
       </c>
       <c r="D76" s="4">
         <v>110004</v>
       </c>
-      <c r="E76" s="25" t="s">
+      <c r="E76" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="4">
@@ -7126,27 +7189,27 @@
       <c r="K76" s="4">
         <v>0</v>
       </c>
-      <c r="L76" s="26" t="s">
+      <c r="L76" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="M76" s="26" t="s">
+      <c r="M76" s="24" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A77" s="23">
+      <c r="A77" s="21">
         <v>102000</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="21" t="s">
         <v>119</v>
       </c>
       <c r="D77" s="4">
         <v>110001</v>
       </c>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="4">
@@ -7167,27 +7230,27 @@
       <c r="K77" s="4">
         <v>0</v>
       </c>
-      <c r="L77" s="26" t="s">
+      <c r="L77" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="M77" s="26" t="s">
+      <c r="M77" s="24" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" s="23">
+      <c r="A78" s="21">
         <v>102100</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C78" s="21" t="s">
         <v>122</v>
       </c>
       <c r="D78" s="4">
         <v>110003</v>
       </c>
-      <c r="E78" s="25" t="s">
+      <c r="E78" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="4">
@@ -7208,27 +7271,27 @@
       <c r="K78" s="4">
         <v>0</v>
       </c>
-      <c r="L78" s="26" t="s">
+      <c r="L78" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="M78" s="26" t="s">
+      <c r="M78" s="24" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="23">
+      <c r="A79" s="21">
         <v>102200</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D79" s="4">
         <v>110001</v>
       </c>
-      <c r="E79" s="25" t="s">
+      <c r="E79" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F79" s="4">
@@ -7249,27 +7312,27 @@
       <c r="K79" s="4">
         <v>0</v>
       </c>
-      <c r="L79" s="26" t="s">
+      <c r="L79" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="M79" s="26" t="s">
+      <c r="M79" s="24" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" s="23">
+      <c r="A80" s="21">
         <v>102300</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="21" t="s">
         <v>336</v>
       </c>
       <c r="D80" s="4">
         <v>110002</v>
       </c>
-      <c r="E80" s="25" t="s">
+      <c r="E80" s="23" t="s">
         <v>337</v>
       </c>
       <c r="F80" s="4">
@@ -7290,10 +7353,10 @@
       <c r="K80" s="4">
         <v>0</v>
       </c>
-      <c r="L80" s="26" t="s">
+      <c r="L80" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="M80" s="26" t="s">
+      <c r="M80" s="24" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7318,99 +7381,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0760ADE8-934E-48F1-8D91-337BB46021CC}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="21.09765625" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="12" max="12" width="5.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>110000</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>110001</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>110002</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>110003</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>110004</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D6" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7421,245 +7503,308 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838C6BFA-AEF6-42AE-B226-80B4DC19C3A7}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="12.8984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" customWidth="1"/>
-    <col min="6" max="6" width="27.69921875" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" customWidth="1"/>
+    <col min="4" max="4" width="110.19921875" customWidth="1"/>
+    <col min="5" max="5" width="8.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" customWidth="1"/>
+    <col min="7" max="7" width="27.69921875" customWidth="1"/>
+    <col min="12" max="12" width="5.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="D2" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
         <v>120000</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+      <c r="D3" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
         <v>120001</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="D4" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
         <v>120002</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="D5" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
         <v>120003</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="D6" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
         <v>120004</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="D7" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
         <v>120005</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="D8" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
         <v>120006</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="D9" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
         <v>120007</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="D10" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
         <v>120008</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="D11" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
         <v>120009</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="D12" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
         <v>120010</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="D13" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
         <v>120011</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="D14" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
         <v>120012</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="D15" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
         <v>120013</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="D16" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
         <v>120014</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="D17" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
         <v>120015</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="D18" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
         <v>120016</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
+      <c r="D19" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
         <v>120017</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="4" t="s">
         <v>323</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -7687,13 +7832,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>332</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -7701,7 +7846,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -7709,7 +7854,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -7717,10 +7862,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>327</v>
       </c>
     </row>

--- a/Assets/Resources/Data/HonkaiImpact3rdData.xlsx
+++ b/Assets/Resources/Data/HonkaiImpact3rdData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\GameDesigner2\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A848C5-FA85-442F-82D0-A821248F8C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B9D85-1B43-484F-BE5F-0CD7A85B2E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{A9D81FDE-F90A-44B8-9F30-C74DE307B7EE}"/>
+    <workbookView xWindow="38280" yWindow="-180" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A9D81FDE-F90A-44B8-9F30-C74DE307B7EE}"/>
   </bookViews>
   <sheets>
     <sheet name="characterSheet" sheetId="1" r:id="rId1"/>
@@ -4043,8 +4043,8 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7384,7 +7384,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7505,8 +7505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838C6BFA-AEF6-42AE-B226-80B4DC19C3A7}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7819,7 +7819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6980DA-96FD-4159-9ED7-8593BCBF2BA6}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
